--- a/www/IndicatorsPerCountry/Kuwait_GDPperCapita_TerritorialRef_1961_2012_CCode_414.xlsx
+++ b/www/IndicatorsPerCountry/Kuwait_GDPperCapita_TerritorialRef_1961_2012_CCode_414.xlsx
@@ -246,13 +246,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Kuwait_GDPperCapita_TerritorialRef_1961_2012_CCode_414.xlsx
+++ b/www/IndicatorsPerCountry/Kuwait_GDPperCapita_TerritorialRef_1961_2012_CCode_414.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="86">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,187 +36,205 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>28878</t>
-  </si>
-  <si>
-    <t>29777</t>
-  </si>
-  <si>
-    <t>30023</t>
-  </si>
-  <si>
-    <t>31361</t>
-  </si>
-  <si>
-    <t>33200</t>
-  </si>
-  <si>
-    <t>32257</t>
-  </si>
-  <si>
-    <t>32876</t>
-  </si>
-  <si>
-    <t>31447</t>
-  </si>
-  <si>
-    <t>29907</t>
-  </si>
-  <si>
-    <t>29568</t>
-  </si>
-  <si>
-    <t>28813</t>
-  </si>
-  <si>
-    <t>26112</t>
-  </si>
-  <si>
-    <t>26443</t>
-  </si>
-  <si>
-    <t>25331</t>
-  </si>
-  <si>
-    <t>25303</t>
-  </si>
-  <si>
-    <t>23533</t>
-  </si>
-  <si>
-    <t>24050</t>
-  </si>
-  <si>
-    <t>22409</t>
-  </si>
-  <si>
-    <t>22300</t>
-  </si>
-  <si>
-    <t>20963</t>
-  </si>
-  <si>
-    <t>30695</t>
-  </si>
-  <si>
-    <t>30930</t>
-  </si>
-  <si>
-    <t>30291</t>
-  </si>
-  <si>
-    <t>26689</t>
-  </si>
-  <si>
-    <t>21934</t>
-  </si>
-  <si>
-    <t>18162</t>
-  </si>
-  <si>
-    <t>18166</t>
-  </si>
-  <si>
-    <t>16417</t>
-  </si>
-  <si>
-    <t>16539</t>
-  </si>
-  <si>
-    <t>17675</t>
-  </si>
-  <si>
-    <t>13271</t>
-  </si>
-  <si>
-    <t>10290</t>
-  </si>
-  <si>
-    <t>8685</t>
-  </si>
-  <si>
-    <t>8966</t>
-  </si>
-  <si>
-    <t>9024</t>
-  </si>
-  <si>
-    <t>8165</t>
-  </si>
-  <si>
-    <t>8475</t>
-  </si>
-  <si>
-    <t>7789</t>
-  </si>
-  <si>
-    <t>7727</t>
-  </si>
-  <si>
-    <t>7968</t>
-  </si>
-  <si>
-    <t>6120.88645711</t>
-  </si>
-  <si>
-    <t>8179.05744769</t>
-  </si>
-  <si>
-    <t>8266.74279716</t>
-  </si>
-  <si>
-    <t>10424.5224357</t>
-  </si>
-  <si>
-    <t>10695.4053115</t>
-  </si>
-  <si>
-    <t>10262.7479346</t>
-  </si>
-  <si>
-    <t>9872.01646091</t>
-  </si>
-  <si>
-    <t>9773.74786018</t>
-  </si>
-  <si>
-    <t>9815.45695761</t>
-  </si>
-  <si>
-    <t>9356.8420998</t>
-  </si>
-  <si>
-    <t>9516.77344499</t>
-  </si>
-  <si>
-    <t>9276.40010598</t>
-  </si>
-  <si>
-    <t>9300.73880921</t>
-  </si>
-  <si>
-    <t>10625.1981904</t>
-  </si>
-  <si>
-    <t>11460.6673398</t>
-  </si>
-  <si>
-    <t>12283.4336353</t>
-  </si>
-  <si>
-    <t>12931.8111548</t>
-  </si>
-  <si>
-    <t>13425.0865827</t>
-  </si>
-  <si>
-    <t>13657.7703449</t>
-  </si>
-  <si>
-    <t>12306.709891</t>
-  </si>
-  <si>
-    <t>12348.2387368</t>
+    <t>46031</t>
+  </si>
+  <si>
+    <t>47464</t>
+  </si>
+  <si>
+    <t>47856</t>
+  </si>
+  <si>
+    <t>49989</t>
+  </si>
+  <si>
+    <t>52920</t>
+  </si>
+  <si>
+    <t>51417</t>
+  </si>
+  <si>
+    <t>52404</t>
+  </si>
+  <si>
+    <t>50126</t>
+  </si>
+  <si>
+    <t>47671</t>
+  </si>
+  <si>
+    <t>47131</t>
+  </si>
+  <si>
+    <t>45929</t>
+  </si>
+  <si>
+    <t>41622</t>
+  </si>
+  <si>
+    <t>42150</t>
+  </si>
+  <si>
+    <t>40377</t>
+  </si>
+  <si>
+    <t>40333</t>
+  </si>
+  <si>
+    <t>37511</t>
+  </si>
+  <si>
+    <t>38335</t>
+  </si>
+  <si>
+    <t>35720</t>
+  </si>
+  <si>
+    <t>35546</t>
+  </si>
+  <si>
+    <t>33415</t>
+  </si>
+  <si>
+    <t>48927</t>
+  </si>
+  <si>
+    <t>49302</t>
+  </si>
+  <si>
+    <t>48283</t>
+  </si>
+  <si>
+    <t>42542</t>
+  </si>
+  <si>
+    <t>34962</t>
+  </si>
+  <si>
+    <t>28950</t>
+  </si>
+  <si>
+    <t>28956</t>
+  </si>
+  <si>
+    <t>26168</t>
+  </si>
+  <si>
+    <t>26363</t>
+  </si>
+  <si>
+    <t>28174</t>
+  </si>
+  <si>
+    <t>21154</t>
+  </si>
+  <si>
+    <t>16402</t>
+  </si>
+  <si>
+    <t>13845</t>
+  </si>
+  <si>
+    <t>14292</t>
+  </si>
+  <si>
+    <t>14384</t>
+  </si>
+  <si>
+    <t>13015</t>
+  </si>
+  <si>
+    <t>13509</t>
+  </si>
+  <si>
+    <t>12416</t>
+  </si>
+  <si>
+    <t>12317</t>
+  </si>
+  <si>
+    <t>12701</t>
+  </si>
+  <si>
+    <t>9757</t>
+  </si>
+  <si>
+    <t>6310.90684193707</t>
+  </si>
+  <si>
+    <t>12965.0669266169</t>
+  </si>
+  <si>
+    <t>19955.3143291455</t>
+  </si>
+  <si>
+    <t>24532.4134922228</t>
+  </si>
+  <si>
+    <t>27552.9609822888</t>
+  </si>
+  <si>
+    <t>29612.6600989995</t>
+  </si>
+  <si>
+    <t>31511.191303357</t>
+  </si>
+  <si>
+    <t>33331.2986244481</t>
+  </si>
+  <si>
+    <t>33351.1949905453</t>
+  </si>
+  <si>
+    <t>35844.7475240851</t>
+  </si>
+  <si>
+    <t>37225.8694104754</t>
+  </si>
+  <si>
+    <t>39943.1481627285</t>
+  </si>
+  <si>
+    <t>48809.7127623089</t>
+  </si>
+  <si>
+    <t>55911.7935999109</t>
+  </si>
+  <si>
+    <t>62959.6014217313</t>
+  </si>
+  <si>
+    <t>68546.1428873113</t>
+  </si>
+  <si>
+    <t>73096.8709734517</t>
+  </si>
+  <si>
+    <t>75138.1196927745</t>
+  </si>
+  <si>
+    <t>70072.729383949</t>
+  </si>
+  <si>
+    <t>68865.3096214215</t>
+  </si>
+  <si>
+    <t>77126</t>
+  </si>
+  <si>
+    <t>78801</t>
+  </si>
+  <si>
+    <t>75256</t>
+  </si>
+  <si>
+    <t>72508</t>
+  </si>
+  <si>
+    <t>71354</t>
+  </si>
+  <si>
+    <t>71010</t>
   </si>
   <si>
     <t>Description</t>
@@ -1357,6 +1375,108 @@
         <v>67</v>
       </c>
     </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>414.0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>414.0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>414.0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>414.0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>414.0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>414.0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1372,50 +1492,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
